--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -534,35 +534,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -855,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y20" sqref="A2:Y20"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,36 +870,37 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -932,49 +933,49 @@
       <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>45301</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="19">
         <v>45302</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="19">
         <v>45303</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="19">
         <v>45306</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="19">
         <v>45307</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="19">
         <v>45308</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="19">
         <v>45309</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="19">
         <v>45310</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="19">
         <v>45313</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="19">
         <v>45314</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="19">
         <v>45315</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="19">
         <v>45316</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="19">
         <v>45317</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="19">
         <v>45320</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="Y2" s="19">
         <v>45321</v>
       </c>
     </row>
@@ -1003,57 +1004,57 @@
       <c r="H3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
         <v>17</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="22" t="s">
+      <c r="K3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1082,57 +1083,57 @@
       <c r="H4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
         <v>11</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
         <v>6</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="22" t="s">
+      <c r="K4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1161,57 +1162,57 @@
       <c r="H5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="22" t="s">
+      <c r="K5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1240,57 +1241,57 @@
       <c r="H6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="22" t="s">
+      <c r="K6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1319,57 +1320,57 @@
       <c r="H7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" s="22" t="s">
+      <c r="K7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1398,57 +1399,57 @@
       <c r="H8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J8" s="28">
+        <v>15</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1477,57 +1478,57 @@
       <c r="H9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y9" s="22" t="s">
+      <c r="K9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1556,57 +1557,57 @@
       <c r="H10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y10" s="22" t="s">
+      <c r="K10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1635,57 +1636,57 @@
       <c r="H11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11" s="22" t="s">
+      <c r="K11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1714,57 +1715,57 @@
       <c r="H12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y12" s="22" t="s">
+      <c r="K12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1793,57 +1794,57 @@
       <c r="H13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y13" s="22" t="s">
+      <c r="K13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y13" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1872,57 +1873,57 @@
       <c r="H14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y14" s="22" t="s">
+      <c r="K14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y14" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1951,57 +1952,57 @@
       <c r="H15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="22" t="s">
+      <c r="K15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2030,57 +2031,57 @@
       <c r="H16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" s="22" t="s">
+      <c r="K16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2109,57 +2110,57 @@
       <c r="H17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="22" t="s">
+      <c r="K17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2188,57 +2189,57 @@
       <c r="H18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" s="22" t="s">
+      <c r="K18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2267,57 +2268,57 @@
       <c r="H19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y19" s="22" t="s">
+      <c r="K19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y19" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2346,201 +2347,201 @@
       <c r="H20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="V20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y20" s="22" t="s">
+      <c r="K20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y20" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
       <c r="K21">
-        <f>COUNTIF(K3:K20,"+")</f>
+        <f t="shared" ref="K21:Y21" si="2">COUNTIF(K3:K20,"+")</f>
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L21">
-        <f>COUNTIF(L3:L20,"+")</f>
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <f>COUNTIF(M3:M20,"+")</f>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N21">
-        <f>COUNTIF(N3:N20,"+")</f>
-        <v>15</v>
-      </c>
-      <c r="O21">
-        <f>COUNTIF(O3:O20,"+")</f>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P21">
-        <f>COUNTIF(P3:P20,"+")</f>
-        <v>13</v>
-      </c>
-      <c r="Q21">
-        <f>COUNTIF(Q3:Q20,"+")</f>
-        <v>15</v>
-      </c>
-      <c r="R21">
-        <f>COUNTIF(R3:R20,"+")</f>
-        <v>13</v>
-      </c>
-      <c r="S21">
-        <f>COUNTIF(S3:S20,"+")</f>
-        <v>13</v>
-      </c>
-      <c r="T21">
-        <f>COUNTIF(T3:T20,"+")</f>
-        <v>14</v>
-      </c>
-      <c r="U21">
-        <f>COUNTIF(U3:U20,"+")</f>
-        <v>14</v>
-      </c>
-      <c r="V21">
-        <f>COUNTIF(V3:V20,"+")</f>
-        <v>17</v>
-      </c>
-      <c r="W21">
-        <f>COUNTIF(W3:W20,"+")</f>
-        <v>12</v>
-      </c>
-      <c r="X21">
-        <f>COUNTIF(X3:X20,"+")</f>
-        <v>14</v>
-      </c>
       <c r="Y21">
-        <f>COUNTIF(Y3:Y20,"+")</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f>COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="3">COUNTIF(K3:K20,"-")</f>
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L22">
-        <f>COUNTIF(L3:L20,"-")</f>
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <f>COUNTIF(M3:M20,"-")</f>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N22">
-        <f>COUNTIF(N3:N20,"-")</f>
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <f>COUNTIF(O3:O20,"-")</f>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P22">
-        <f>COUNTIF(P3:P20,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <f>COUNTIF(Q3:Q20,"-")</f>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f>COUNTIF(R3:R20,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <f>COUNTIF(S3:S20,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <f>COUNTIF(T3:T20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <f>COUNTIF(U3:U20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <f>COUNTIF(V3:V20,"-")</f>
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f>COUNTIF(W3:W20,"-")</f>
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <f>COUNTIF(X3:X20,"-")</f>
-        <v>4</v>
-      </c>
       <c r="Y22">
-        <f>COUNTIF(Y3:Y20,"-")</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -855,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:X1048576"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,8 +869,8 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
-    <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="23" width="12.28515625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2549,6 +2549,30 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="J3:J20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -851,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="Z20" sqref="A2:Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,12 +869,12 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
-    <col min="11" max="23" width="12.28515625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +978,11 @@
       <c r="Y2" s="19">
         <v>45321</v>
       </c>
+      <c r="Z2" s="19">
+        <v>45322</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1057,8 +1060,11 @@
       <c r="Y3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1085,7 +1091,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1136,8 +1142,11 @@
       <c r="Y4" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1168,7 +1177,7 @@
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
@@ -1215,8 +1224,11 @@
       <c r="Y5" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z5" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1243,7 +1255,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1294,8 +1306,11 @@
       <c r="Y6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1322,7 +1337,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1373,8 +1388,11 @@
       <c r="Y7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1401,7 +1419,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
@@ -1452,8 +1470,11 @@
       <c r="Y8" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z8" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1480,7 +1501,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1531,8 +1552,11 @@
       <c r="Y9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1563,7 +1587,7 @@
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>77</v>
@@ -1610,8 +1634,11 @@
       <c r="Y10" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z10" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1638,7 +1665,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1689,8 +1716,11 @@
       <c r="Y11" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1717,7 +1747,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -1768,8 +1798,11 @@
       <c r="Y12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1796,7 +1829,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
@@ -1847,8 +1880,11 @@
       <c r="Y13" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z13" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1875,7 +1911,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
@@ -1926,8 +1962,11 @@
       <c r="Y14" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z14" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1954,7 +1993,7 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
@@ -2005,8 +2044,11 @@
       <c r="Y15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z15" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2037,7 +2079,7 @@
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>77</v>
@@ -2084,8 +2126,11 @@
       <c r="Y16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z16" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2112,7 +2157,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2163,8 +2208,11 @@
       <c r="Y17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z17" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2195,7 +2243,7 @@
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>77</v>
@@ -2242,8 +2290,11 @@
       <c r="Y18" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="Z18" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2270,7 +2321,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2321,8 +2372,11 @@
       <c r="Y19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2349,7 +2403,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2400,8 +2454,11 @@
       <c r="Y20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="Z20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2465,73 +2522,81 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="3">COUNTIF(Z3:Z20,"+")</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Y22" si="3">COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="4">COUNTIF(K3:K20,"-")</f>
         <v>3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="5">COUNTIF(Z3:Z20,"-")</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -851,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z20" sqref="A2:Z20"/>
+      <selection pane="topRight" activeCell="AB20" sqref="A2:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,11 +870,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,8 +981,14 @@
       <c r="Z2" s="19">
         <v>45322</v>
       </c>
+      <c r="AA2" s="19">
+        <v>45323</v>
+      </c>
+      <c r="AB2" s="19">
+        <v>45324</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1009,7 +1015,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1063,8 +1069,14 @@
       <c r="Z3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1091,11 +1103,11 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>77</v>
@@ -1145,8 +1157,14 @@
       <c r="Z4" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1173,11 +1191,11 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
@@ -1227,8 +1245,14 @@
       <c r="Z5" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AA5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1255,7 +1279,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1309,8 +1333,14 @@
       <c r="Z6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1337,7 +1367,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1391,8 +1421,14 @@
       <c r="Z7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1419,7 +1455,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
@@ -1473,8 +1509,14 @@
       <c r="Z8" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1501,7 +1543,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1555,8 +1597,14 @@
       <c r="Z9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1583,7 +1631,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
@@ -1637,8 +1685,14 @@
       <c r="Z10" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AA10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1665,7 +1719,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1719,8 +1773,14 @@
       <c r="Z11" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1747,7 +1807,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -1801,8 +1861,14 @@
       <c r="Z12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1829,7 +1895,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
@@ -1883,8 +1949,14 @@
       <c r="Z13" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1911,7 +1983,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
@@ -1965,8 +2037,14 @@
       <c r="Z14" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1993,11 +2071,11 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>77</v>
@@ -2047,8 +2125,14 @@
       <c r="Z15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2075,11 +2159,11 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>77</v>
@@ -2129,8 +2213,14 @@
       <c r="Z16" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AA16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2157,7 +2247,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2211,8 +2301,14 @@
       <c r="Z17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2243,7 +2339,7 @@
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>77</v>
@@ -2293,8 +2389,14 @@
       <c r="Z18" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AA18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB18" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2321,7 +2423,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2375,8 +2477,14 @@
       <c r="Z19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2403,11 +2511,11 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>77</v>
@@ -2457,8 +2565,14 @@
       <c r="Z20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AA20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2523,11 +2637,19 @@
         <v>12</v>
       </c>
       <c r="Z21">
-        <f t="shared" ref="Z21" si="3">COUNTIF(Z3:Z20,"+")</f>
+        <f t="shared" ref="Z21:AB21" si="3">COUNTIF(Z3:Z20,"+")</f>
         <v>14</v>
       </c>
+      <c r="AA21">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
@@ -2592,11 +2714,19 @@
         <v>6</v>
       </c>
       <c r="Z22">
-        <f t="shared" ref="Z22" si="5">COUNTIF(Z3:Z20,"-")</f>
+        <f t="shared" ref="Z22:AB22" si="5">COUNTIF(Z3:Z20,"-")</f>
         <v>4</v>
       </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -2159,11 +2159,11 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>77</v>
@@ -2217,7 +2217,7 @@
         <v>77</v>
       </c>
       <c r="AB16" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="AB21">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -851,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB20" sqref="A2:AB20"/>
+      <selection pane="topRight" activeCell="AD20" sqref="A2:AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,11 +870,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,8 +987,14 @@
       <c r="AB2" s="19">
         <v>45324</v>
       </c>
+      <c r="AC2" s="19">
+        <v>45327</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>45328</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1015,7 +1021,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1075,8 +1081,14 @@
       <c r="AB3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1103,7 +1115,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1163,8 +1175,14 @@
       <c r="AB4" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1191,11 +1209,11 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
@@ -1251,8 +1269,14 @@
       <c r="AB5" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1279,7 +1303,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1339,8 +1363,14 @@
       <c r="AB6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1367,7 +1397,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1427,8 +1457,14 @@
       <c r="AB7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1455,11 +1491,11 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>77</v>
@@ -1515,8 +1551,14 @@
       <c r="AB8" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD8" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1543,7 +1585,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1603,8 +1645,14 @@
       <c r="AB9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1631,7 +1679,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
@@ -1691,8 +1739,14 @@
       <c r="AB10" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1719,7 +1773,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1779,8 +1833,14 @@
       <c r="AB11" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1807,7 +1867,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -1867,8 +1927,14 @@
       <c r="AB12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1895,7 +1961,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
@@ -1955,8 +2021,14 @@
       <c r="AB13" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1983,7 +2055,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
@@ -2043,8 +2115,14 @@
       <c r="AB14" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD14" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2071,7 +2149,7 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
@@ -2131,8 +2209,14 @@
       <c r="AB15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2159,7 +2243,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
@@ -2219,8 +2303,14 @@
       <c r="AB16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD16" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2247,7 +2337,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2307,8 +2397,14 @@
       <c r="AB17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD17" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2335,7 +2431,7 @@
       </c>
       <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
@@ -2395,8 +2491,14 @@
       <c r="AB18" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AC18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD18" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2423,7 +2525,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2483,8 +2585,14 @@
       <c r="AB19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AC19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2511,7 +2619,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2571,8 +2679,14 @@
       <c r="AB20" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AC20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2648,85 +2762,101 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21:AD21" si="4">COUNTIF(AC3:AC20,"+")</f>
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Y22" si="4">COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="5">COUNTIF(K3:K20,"-")</f>
         <v>3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22:AB22" si="5">COUNTIF(Z3:Z20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="AA22">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22:AB22" si="6">COUNTIF(Z3:Z20,"-")</f>
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="AB22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
+      <c r="AC22">
+        <f t="shared" ref="AC22:AD22" si="7">COUNTIF(AC3:AC20,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -855,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD20" sqref="A2:AD20"/>
+      <selection pane="topRight" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,11 +1491,11 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>77</v>
@@ -1555,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="AD21">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="AD22">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ishxona\davomat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -840,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,11 +846,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD9" sqref="AD9"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,11 +865,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="28" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="30" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +897,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,8 +988,14 @@
       <c r="AD2" s="19">
         <v>45328</v>
       </c>
+      <c r="AE2" s="19">
+        <v>45329</v>
+      </c>
+      <c r="AF2" s="19">
+        <v>45330</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1087,8 +1088,12 @@
       <c r="AD3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="20"/>
     </row>
-    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1115,7 +1120,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1181,8 +1186,12 @@
       <c r="AD4" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="20"/>
     </row>
-    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1209,7 +1218,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
@@ -1275,8 +1284,12 @@
       <c r="AD5" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AE5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5" s="20"/>
     </row>
-    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1303,7 +1316,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1369,8 +1382,12 @@
       <c r="AD6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF6" s="20"/>
     </row>
-    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1397,7 +1414,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1463,8 +1480,12 @@
       <c r="AD7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" s="20"/>
     </row>
-    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1491,7 +1512,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
@@ -1557,8 +1578,12 @@
       <c r="AD8" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF8" s="20"/>
     </row>
-    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1585,7 +1610,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1651,8 +1676,12 @@
       <c r="AD9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF9" s="20"/>
     </row>
-    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1679,7 +1708,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
@@ -1745,8 +1774,12 @@
       <c r="AD10" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF10" s="20"/>
     </row>
-    <row r="11" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1773,7 +1806,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1839,8 +1872,12 @@
       <c r="AD11" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF11" s="20"/>
     </row>
-    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1867,7 +1904,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -1933,8 +1970,12 @@
       <c r="AD12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="20"/>
     </row>
-    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1961,7 +2002,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
@@ -2027,8 +2068,12 @@
       <c r="AD13" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" s="20"/>
     </row>
-    <row r="14" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2055,7 +2100,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
@@ -2121,8 +2166,12 @@
       <c r="AD14" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" s="20"/>
     </row>
-    <row r="15" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2149,7 +2198,7 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
@@ -2215,8 +2264,12 @@
       <c r="AD15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF15" s="20"/>
     </row>
-    <row r="16" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2243,7 +2296,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
@@ -2309,8 +2362,12 @@
       <c r="AD16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF16" s="20"/>
     </row>
-    <row r="17" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2337,7 +2394,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2403,8 +2460,12 @@
       <c r="AD17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF17" s="20"/>
     </row>
-    <row r="18" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2435,7 +2496,7 @@
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>77</v>
@@ -2497,8 +2558,12 @@
       <c r="AD18" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF18" s="20"/>
     </row>
-    <row r="19" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2525,7 +2590,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2591,8 +2656,12 @@
       <c r="AD19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF19" s="20"/>
     </row>
-    <row r="20" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2619,7 +2688,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2685,8 +2754,12 @@
       <c r="AD20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AE20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF20" s="20"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2770,93 +2843,109 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
+      <c r="AE21">
+        <f t="shared" ref="AE21:AF21" si="5">COUNTIF(AE3:AE20,"+")</f>
+        <v>17</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Y22" si="5">COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="6">COUNTIF(K3:K20,"-")</f>
         <v>3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22:AB22" si="6">COUNTIF(Z3:Z20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="AA22">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22:AB22" si="7">COUNTIF(Z3:Z20,"-")</f>
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="AB22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AD22" si="7">COUNTIF(AC3:AC20,"-")</f>
+        <f t="shared" ref="AC22:AD22" si="8">COUNTIF(AC3:AC20,"-")</f>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AE22">
+        <f t="shared" ref="AE22:AF22" si="9">COUNTIF(AE3:AE20,"-")</f>
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ishxona\davomat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -835,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AE20"/>
+      <selection pane="topRight" activeCell="AG20" sqref="A2:AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,11 +870,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="30" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -897,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +999,11 @@
       <c r="AF2" s="19">
         <v>45330</v>
       </c>
+      <c r="AG2" s="19">
+        <v>45331</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1022,7 +1030,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1091,9 +1099,14 @@
       <c r="AE3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="20"/>
+      <c r="AF3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1120,7 +1133,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1189,9 +1202,14 @@
       <c r="AE4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="20"/>
+      <c r="AF4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1218,11 +1236,11 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
@@ -1287,9 +1305,14 @@
       <c r="AE5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF5" s="20"/>
+      <c r="AF5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1316,7 +1339,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1385,9 +1408,14 @@
       <c r="AE6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF6" s="20"/>
+      <c r="AF6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1414,7 +1442,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1483,9 +1511,14 @@
       <c r="AE7" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="20"/>
+      <c r="AF7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1516,7 +1549,7 @@
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>77</v>
@@ -1581,9 +1614,14 @@
       <c r="AE8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF8" s="20"/>
+      <c r="AF8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1610,7 +1648,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1679,9 +1717,14 @@
       <c r="AE9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF9" s="20"/>
+      <c r="AF9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1708,11 +1751,11 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>77</v>
@@ -1777,9 +1820,14 @@
       <c r="AE10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF10" s="20"/>
+      <c r="AF10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1806,7 +1854,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1875,9 +1923,14 @@
       <c r="AE11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF11" s="20"/>
+      <c r="AF11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1904,7 +1957,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -1973,9 +2026,14 @@
       <c r="AE12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF12" s="20"/>
+      <c r="AF12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2002,11 +2060,11 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>78</v>
@@ -2071,9 +2129,14 @@
       <c r="AE13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF13" s="20"/>
+      <c r="AF13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG13" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2100,7 +2163,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
@@ -2169,9 +2232,14 @@
       <c r="AE14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF14" s="20"/>
+      <c r="AF14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG14" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2198,7 +2266,7 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
@@ -2267,9 +2335,14 @@
       <c r="AE15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF15" s="20"/>
+      <c r="AF15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2296,11 +2369,11 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>77</v>
@@ -2365,9 +2438,14 @@
       <c r="AE16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF16" s="20"/>
+      <c r="AF16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG16" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2394,7 +2472,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2463,9 +2541,14 @@
       <c r="AE17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF17" s="20"/>
+      <c r="AF17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG17" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2492,7 +2575,7 @@
       </c>
       <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
@@ -2561,9 +2644,14 @@
       <c r="AE18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AF18" s="20"/>
+      <c r="AF18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG18" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2590,7 +2678,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2659,9 +2747,14 @@
       <c r="AE19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF19" s="20"/>
+      <c r="AF19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2688,7 +2781,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2757,9 +2850,14 @@
       <c r="AE20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AF20" s="20"/>
+      <c r="AF20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2849,103 +2947,111 @@
       </c>
       <c r="AF21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" ref="AG21" si="6">COUNTIF(AG3:AG20,"+")</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Y22" si="6">COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="7">COUNTIF(K3:K20,"-")</f>
         <v>3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22:AB22" si="7">COUNTIF(Z3:Z20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="AA22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22:AB22" si="8">COUNTIF(Z3:Z20,"-")</f>
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="AB22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AD22" si="8">COUNTIF(AC3:AC20,"-")</f>
+        <f t="shared" ref="AC22:AD22" si="9">COUNTIF(AC3:AC20,"-")</f>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AE22">
-        <f t="shared" ref="AE22:AF22" si="9">COUNTIF(AE3:AE20,"-")</f>
+        <f t="shared" ref="AE22:AF22" si="10">COUNTIF(AE3:AE20,"-")</f>
         <v>1</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" ref="AG22" si="11">COUNTIF(AG3:AG20,"-")</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -851,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG20" sqref="A2:AG20"/>
+      <selection pane="topRight" activeCell="AH20" sqref="A2:AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,11 +870,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="31" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="33" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:33" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1002,11 @@
       <c r="AG2" s="19">
         <v>45331</v>
       </c>
+      <c r="AH2" s="19">
+        <v>45334</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1030,7 +1033,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1105,8 +1108,11 @@
       <c r="AG3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1133,7 +1139,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1208,8 +1214,11 @@
       <c r="AG4" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
@@ -1311,8 +1320,11 @@
       <c r="AG5" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH5" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1339,7 +1351,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1414,8 +1426,11 @@
       <c r="AG6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1442,7 +1457,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1517,8 +1532,11 @@
       <c r="AG7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1545,7 +1563,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
@@ -1620,8 +1638,11 @@
       <c r="AG8" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AH8" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1648,7 +1669,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1723,8 +1744,11 @@
       <c r="AG9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1751,7 +1775,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
@@ -1826,8 +1850,11 @@
       <c r="AG10" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AH10" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1854,7 +1881,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1929,8 +1956,11 @@
       <c r="AG11" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1957,7 +1987,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -2032,8 +2062,11 @@
       <c r="AG12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2064,7 +2097,7 @@
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>78</v>
@@ -2135,8 +2168,11 @@
       <c r="AG13" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AH13" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2167,7 +2203,7 @@
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>77</v>
@@ -2238,8 +2274,11 @@
       <c r="AG14" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH14" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2266,7 +2305,7 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
@@ -2341,8 +2380,11 @@
       <c r="AG15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH15" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2369,7 +2411,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
@@ -2444,8 +2486,11 @@
       <c r="AG16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH16" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2472,7 +2517,7 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
@@ -2547,8 +2592,11 @@
       <c r="AG17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH17" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2575,7 +2623,7 @@
       </c>
       <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
@@ -2650,8 +2698,11 @@
       <c r="AG18" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH18" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2678,7 +2729,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2753,8 +2804,11 @@
       <c r="AG19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2781,7 +2835,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2856,8 +2910,11 @@
       <c r="AG20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AH20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -2950,11 +3007,15 @@
         <v>15</v>
       </c>
       <c r="AG21">
-        <f t="shared" ref="AG21" si="6">COUNTIF(AG3:AG20,"+")</f>
+        <f t="shared" ref="AG21:AH21" si="6">COUNTIF(AG3:AG20,"+")</f>
         <v>15</v>
       </c>
+      <c r="AH21">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
@@ -3047,11 +3108,15 @@
         <v>3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22" si="11">COUNTIF(AG3:AG20,"-")</f>
+        <f t="shared" ref="AG22:AH22" si="11">COUNTIF(AG3:AG20,"-")</f>
         <v>3</v>
       </c>
+      <c r="AH22">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -851,11 +851,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH20" sqref="A2:AH20"/>
+      <selection pane="topRight" activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,11 +870,11 @@
     <col min="8" max="8" width="11.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.85546875" style="16" customWidth="1"/>
     <col min="11" max="23" width="12.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>73</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,8 +1005,14 @@
       <c r="AH2" s="19">
         <v>45334</v>
       </c>
+      <c r="AI2" s="19">
+        <v>45335</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>45336</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1033,7 +1039,7 @@
       </c>
       <c r="I3" s="25">
         <f>COUNTIF(K3:CZ3,"+")+2</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="25">
         <f>COUNTIF(K3:CZ3,"-")</f>
@@ -1111,8 +1117,14 @@
       <c r="AH3" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1139,7 +1151,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" ref="I4:I20" si="0">COUNTIF(K4:CZ4,"+")+2</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J20" si="1">COUNTIF(K4:CZ4,"-")</f>
@@ -1217,8 +1229,14 @@
       <c r="AH4" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1249,7 +1267,7 @@
       </c>
       <c r="J5" s="25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
@@ -1323,8 +1341,14 @@
       <c r="AH5" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1351,7 +1375,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="1"/>
@@ -1429,8 +1453,14 @@
       <c r="AH6" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1457,7 +1487,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="1"/>
@@ -1535,8 +1565,14 @@
       <c r="AH7" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1563,7 +1599,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
@@ -1641,8 +1677,14 @@
       <c r="AH8" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1669,7 +1711,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
@@ -1747,8 +1789,14 @@
       <c r="AH9" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1775,7 +1823,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="1"/>
@@ -1853,8 +1901,14 @@
       <c r="AH10" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1881,7 +1935,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="1"/>
@@ -1959,8 +2013,14 @@
       <c r="AH11" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ11" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1987,7 +2047,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
@@ -2065,8 +2125,14 @@
       <c r="AH12" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2093,7 +2159,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="1"/>
@@ -2171,8 +2237,14 @@
       <c r="AH13" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AI13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2199,11 +2271,11 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>77</v>
@@ -2277,8 +2349,14 @@
       <c r="AH14" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="AI14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ14" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2305,11 +2383,11 @@
       </c>
       <c r="I15" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>77</v>
@@ -2383,8 +2461,14 @@
       <c r="AH15" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2411,7 +2495,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
@@ -2489,8 +2573,14 @@
       <c r="AH16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2517,11 +2607,11 @@
       </c>
       <c r="I17" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>77</v>
@@ -2595,8 +2685,14 @@
       <c r="AH17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2623,7 +2719,7 @@
       </c>
       <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
@@ -2701,8 +2797,14 @@
       <c r="AH18" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ18" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2729,7 +2831,7 @@
       </c>
       <c r="I19" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
@@ -2807,8 +2909,14 @@
       <c r="AH19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ19" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2835,7 +2943,7 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
@@ -2913,8 +3021,14 @@
       <c r="AH20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AI20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ20" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -3014,109 +3128,125 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="AI21">
+        <f t="shared" ref="AI21:AJ21" si="7">COUNTIF(AI3:AI20,"+")</f>
+        <v>17</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Y22" si="7">COUNTIF(K3:K20,"-")</f>
+        <f t="shared" ref="K22:Y22" si="8">COUNTIF(K3:K20,"-")</f>
         <v>3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22:AB22" si="8">COUNTIF(Z3:Z20,"-")</f>
-        <v>4</v>
-      </c>
-      <c r="AA22">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22:AB22" si="9">COUNTIF(Z3:Z20,"-")</f>
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
       <c r="AB22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AD22" si="9">COUNTIF(AC3:AC20,"-")</f>
+        <f t="shared" ref="AC22:AD22" si="10">COUNTIF(AC3:AC20,"-")</f>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AE22">
-        <f t="shared" ref="AE22:AF22" si="10">COUNTIF(AE3:AE20,"-")</f>
+        <f t="shared" ref="AE22:AF22" si="11">COUNTIF(AE3:AE20,"-")</f>
         <v>1</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AG22">
-        <f t="shared" ref="AG22:AH22" si="11">COUNTIF(AG3:AG20,"-")</f>
+        <f t="shared" ref="AG22:AH22" si="12">COUNTIF(AG3:AG20,"-")</f>
         <v>3</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
+      <c r="AI22">
+        <f t="shared" ref="AI22:AJ22" si="13">COUNTIF(AI3:AI20,"-")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>

--- a/Davomat Amaliyot-5AX-4.xlsx
+++ b/Davomat Amaliyot-5AX-4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ishxona\davomat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -855,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN20" sqref="A2:AN20"/>
+      <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,102 +1138,101 @@
         <v>56</v>
       </c>
       <c r="I3" s="25">
-        <f>COUNTIF(K3:CX3,"+")+2</f>
+        <f>COUNTIF(K3:CV3,"+")+2</f>
         <v>32</v>
       </c>
-      <c r="J3" s="25">
-        <f>COUNTIF(K3:CX3,"-")</f>
+      <c r="K3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO3">
         <v>0</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN3" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,13 +1261,9 @@
         <v>57</v>
       </c>
       <c r="I4" s="25">
-        <f>COUNTIF(K4:CX4,"+")+2</f>
+        <f>COUNTIF(K4:CV4,"+")+2</f>
         <v>25</v>
       </c>
-      <c r="J4" s="25">
-        <f>COUNTIF(K4:CX4,"-")</f>
-        <v>7</v>
-      </c>
       <c r="K4" s="20" t="s">
         <v>77</v>
       </c>
@@ -1363,6 +1353,9 @@
       </c>
       <c r="AN4" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO4">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,13 +1384,9 @@
         <v>58</v>
       </c>
       <c r="I5" s="25">
-        <f>COUNTIF(K5:CX5,"+")+2</f>
+        <f>COUNTIF(K5:CV5,"+")+2</f>
         <v>17</v>
       </c>
-      <c r="J5" s="25">
-        <f>COUNTIF(K5:CX5,"-")</f>
-        <v>15</v>
-      </c>
       <c r="K5" s="20" t="s">
         <v>78</v>
       </c>
@@ -1487,6 +1476,9 @@
       </c>
       <c r="AN5" s="20" t="s">
         <v>78</v>
+      </c>
+      <c r="AO5">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,13 +1507,9 @@
         <v>59</v>
       </c>
       <c r="I6" s="25">
-        <f>COUNTIF(K6:CX6,"+")+2</f>
+        <f>COUNTIF(K6:CV6,"+")+2</f>
         <v>30</v>
       </c>
-      <c r="J6" s="25">
-        <f>COUNTIF(K6:CX6,"-")</f>
-        <v>2</v>
-      </c>
       <c r="K6" s="20" t="s">
         <v>78</v>
       </c>
@@ -1611,6 +1599,9 @@
       </c>
       <c r="AN6" s="20" t="s">
         <v>78</v>
+      </c>
+      <c r="AO6">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,102 +1630,101 @@
         <v>60</v>
       </c>
       <c r="I7" s="25">
-        <f>COUNTIF(K7:CX7,"+")+2</f>
+        <f>COUNTIF(K7:CV7,"+")+2</f>
         <v>32</v>
       </c>
-      <c r="J7" s="25">
-        <f>COUNTIF(K7:CX7,"-")</f>
+      <c r="K7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO7">
         <v>0</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN7" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,13 +1753,9 @@
         <v>61</v>
       </c>
       <c r="I8" s="25">
-        <f>COUNTIF(K8:CX8,"+")+2</f>
+        <f>COUNTIF(K8:CV8,"+")+2</f>
         <v>28</v>
       </c>
-      <c r="J8" s="25">
-        <f>COUNTIF(K8:CX8,"-")</f>
-        <v>4</v>
-      </c>
       <c r="K8" s="20" t="s">
         <v>77</v>
       </c>
@@ -1859,6 +1845,9 @@
       </c>
       <c r="AN8" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO8">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,13 +1876,9 @@
         <v>69</v>
       </c>
       <c r="I9" s="25">
-        <f>COUNTIF(K9:CX9,"+")+2</f>
+        <f>COUNTIF(K9:CV9,"+")+2</f>
         <v>30</v>
       </c>
-      <c r="J9" s="25">
-        <f>COUNTIF(K9:CX9,"-")</f>
-        <v>2</v>
-      </c>
       <c r="K9" s="20" t="s">
         <v>77</v>
       </c>
@@ -1983,6 +1968,9 @@
       </c>
       <c r="AN9" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO9">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,13 +1999,9 @@
         <v>70</v>
       </c>
       <c r="I10" s="25">
-        <f>COUNTIF(K10:CX10,"+")+2</f>
+        <f>COUNTIF(K10:CV10,"+")+2</f>
         <v>20</v>
       </c>
-      <c r="J10" s="25">
-        <f>COUNTIF(K10:CX10,"-")</f>
-        <v>12</v>
-      </c>
       <c r="K10" s="20" t="s">
         <v>77</v>
       </c>
@@ -2107,6 +2091,9 @@
       </c>
       <c r="AN10" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO10">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,13 +2122,9 @@
         <v>62</v>
       </c>
       <c r="I11" s="25">
-        <f>COUNTIF(K11:CX11,"+")+2</f>
+        <f>COUNTIF(K11:CV11,"+")+2</f>
         <v>29</v>
       </c>
-      <c r="J11" s="25">
-        <f>COUNTIF(K11:CX11,"-")</f>
-        <v>3</v>
-      </c>
       <c r="K11" s="20" t="s">
         <v>77</v>
       </c>
@@ -2231,6 +2214,9 @@
       </c>
       <c r="AN11" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO11">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,102 +2245,101 @@
         <v>63</v>
       </c>
       <c r="I12" s="25">
-        <f>COUNTIF(K12:CX12,"+")+2</f>
+        <f>COUNTIF(K12:CV12,"+")+2</f>
         <v>32</v>
       </c>
-      <c r="J12" s="25">
-        <f>COUNTIF(K12:CX12,"-")</f>
+      <c r="K12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO12">
         <v>0</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN12" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,13 +2368,9 @@
         <v>71</v>
       </c>
       <c r="I13" s="25">
-        <f>COUNTIF(K13:CX13,"+")+2</f>
+        <f>COUNTIF(K13:CV13,"+")+2</f>
         <v>29</v>
       </c>
-      <c r="J13" s="25">
-        <f>COUNTIF(K13:CX13,"-")</f>
-        <v>3</v>
-      </c>
       <c r="K13" s="20" t="s">
         <v>78</v>
       </c>
@@ -2479,6 +2460,9 @@
       </c>
       <c r="AN13" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO13">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,13 +2491,9 @@
         <v>64</v>
       </c>
       <c r="I14" s="25">
-        <f>COUNTIF(K14:CX14,"+")+2</f>
+        <f>COUNTIF(K14:CV14,"+")+2</f>
         <v>23</v>
       </c>
-      <c r="J14" s="25">
-        <f>COUNTIF(K14:CX14,"-")</f>
-        <v>9</v>
-      </c>
       <c r="K14" s="20" t="s">
         <v>77</v>
       </c>
@@ -2603,6 +2583,9 @@
       </c>
       <c r="AN14" s="20" t="s">
         <v>78</v>
+      </c>
+      <c r="AO14">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,13 +2614,9 @@
         <v>65</v>
       </c>
       <c r="I15" s="25">
-        <f>COUNTIF(K15:CX15,"+")+2</f>
+        <f>COUNTIF(K15:CV15,"+")+2</f>
         <v>30</v>
       </c>
-      <c r="J15" s="25">
-        <f>COUNTIF(K15:CX15,"-")</f>
-        <v>2</v>
-      </c>
       <c r="K15" s="20" t="s">
         <v>77</v>
       </c>
@@ -2727,6 +2706,9 @@
       </c>
       <c r="AN15" s="20" t="s">
         <v>77</v>
+      </c>
+      <c r="AO15">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,13 +2737,9 @@
         <v>72</v>
       </c>
       <c r="I16" s="25">
-        <f>COUNTIF(K16:CX16,"+")+2</f>
+        <f>COUNTIF(K16:CV16,"+")+2</f>
         <v>23</v>
       </c>
-      <c r="J16" s="25">
-        <f>COUNTIF(K16:CX16,"-")</f>
-        <v>9</v>
-      </c>
       <c r="K16" s="20" t="s">
         <v>77</v>
       </c>
@@ -2852,8 +2830,11 @@
       <c r="AN16" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AO16">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2879,13 +2860,9 @@
         <v>66</v>
       </c>
       <c r="I17" s="25">
-        <f>COUNTIF(K17:CX17,"+")+2</f>
+        <f>COUNTIF(K17:CV17,"+")+2</f>
         <v>29</v>
       </c>
-      <c r="J17" s="25">
-        <f>COUNTIF(K17:CX17,"-")</f>
-        <v>3</v>
-      </c>
       <c r="K17" s="20" t="s">
         <v>77</v>
       </c>
@@ -2976,8 +2953,11 @@
       <c r="AN17" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AO17">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3003,13 +2983,9 @@
         <v>76</v>
       </c>
       <c r="I18" s="25">
-        <f>COUNTIF(K18:CX18,"+")+2</f>
+        <f>COUNTIF(K18:CV18,"+")+2</f>
         <v>23</v>
       </c>
-      <c r="J18" s="25">
-        <f>COUNTIF(K18:CX18,"-")</f>
-        <v>9</v>
-      </c>
       <c r="K18" s="20" t="s">
         <v>77</v>
       </c>
@@ -3100,8 +3076,11 @@
       <c r="AN18" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AO18">
+        <v>54</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3127,13 +3106,9 @@
         <v>67</v>
       </c>
       <c r="I19" s="25">
-        <f>COUNTIF(K19:CX19,"+")+2</f>
+        <f>COUNTIF(K19:CV19,"+")+2</f>
         <v>28</v>
       </c>
-      <c r="J19" s="25">
-        <f>COUNTIF(K19:CX19,"-")</f>
-        <v>4</v>
-      </c>
       <c r="K19" s="20" t="s">
         <v>77</v>
       </c>
@@ -3224,8 +3199,11 @@
       <c r="AN19" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AO19">
+        <v>24</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3251,13 +3229,9 @@
         <v>68</v>
       </c>
       <c r="I20" s="25">
-        <f>COUNTIF(K20:CX20,"+")+2</f>
+        <f>COUNTIF(K20:CV20,"+")+2</f>
         <v>30</v>
       </c>
-      <c r="J20" s="25">
-        <f>COUNTIF(K20:CX20,"-")</f>
-        <v>2</v>
-      </c>
       <c r="K20" s="20" t="s">
         <v>77</v>
       </c>
@@ -3348,8 +3322,11 @@
       <c r="AN20" s="20" t="s">
         <v>77</v>
       </c>
+      <c r="AO20">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
@@ -3474,7 +3451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G22" s="22" t="s">
         <v>80</v>
       </c>
@@ -3599,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>74</v>
       </c>
@@ -3617,18 +3594,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
